--- a/Documentation/4. Sprints and Project Management/Minutes/April Minutes.xlsx
+++ b/Documentation/4. Sprints and Project Management/Minutes/April Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Minutes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessw\Documents\Group Project\desk23\Documentation\4. Sprints and Project Management\Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855FC2F7-DBF1-4174-A6DB-907B07CF3045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97681692-DEC9-40C5-89C2-ADDF1A06EB54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="10" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
   </bookViews>
   <sheets>
     <sheet name="0604" sheetId="1" r:id="rId1"/>
@@ -892,20 +892,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217A42F3-CB62-4A8E-BE87-C59DCC8CC2B5}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -923,19 +923,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -944,29 +944,29 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="13"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -986,7 +986,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1004,19 +1004,19 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -1036,19 +1036,19 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1057,23 +1057,23 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="11"/>
     </row>
@@ -1086,18 +1086,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0998825-A709-416D-BA1D-55E340CA4BC9}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1115,19 +1115,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>85</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>105</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>106</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>108</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>109</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>110</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>112</v>
       </c>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>116</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>119</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>121</v>
       </c>
@@ -1273,38 +1273,38 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="15"/>
     </row>
@@ -1330,14 +1330,14 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1355,19 +1355,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>105</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>106</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>119</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>121</v>
       </c>
@@ -1439,14 +1439,14 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>129</v>
       </c>
@@ -1468,31 +1468,31 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="15"/>
     </row>
@@ -1514,18 +1514,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9956F9-8D97-449D-ACB5-C214B797C256}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1543,19 +1543,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1591,19 +1591,19 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1669,41 +1669,41 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1721,18 +1721,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828DC6C4-C1E1-48A2-AC4B-AE446146FFE9}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1750,19 +1750,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
@@ -1816,19 +1816,19 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -1883,43 +1883,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>58</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>57</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>56</v>
       </c>
@@ -1964,18 +1964,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEAB8C1-8FD2-4E26-A84D-63272D5F4138}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1993,19 +1993,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>47</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2077,19 +2077,19 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2111,31 +2111,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2154,17 +2154,17 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:C26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2182,19 +2182,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>47</v>
       </c>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
@@ -2275,19 +2275,19 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>66</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>68</v>
       </c>
@@ -2331,38 +2331,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>70</v>
       </c>
@@ -2389,18 +2389,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B981483-65BB-4036-A848-DE7E2829A5F8}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2418,19 +2418,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>44</v>
       </c>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
@@ -2457,16 +2457,16 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>64</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>66</v>
       </c>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>68</v>
       </c>
@@ -2509,19 +2509,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>78</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>80</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>81</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>82</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>85</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>87</v>
       </c>
@@ -2598,38 +2598,38 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>70</v>
       </c>
@@ -2655,17 +2655,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB477F1-787E-4BBF-93F6-992136DB352E}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" activeCellId="1" sqref="A15 A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2683,19 +2683,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>64</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>66</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>68</v>
       </c>
@@ -2749,19 +2749,19 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -2772,38 +2772,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="15"/>
     </row>
@@ -2825,18 +2825,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86882D91-3DD8-4F60-8ECB-6AEDC4F6A075}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2854,19 +2854,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>64</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>66</v>
       </c>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>68</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>78</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>80</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>81</v>
       </c>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>82</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>87</v>
       </c>
@@ -2974,14 +2974,14 @@
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>98</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>99</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>101</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>102</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>100</v>
       </c>
@@ -3047,19 +3047,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="15"/>
     </row>
@@ -3081,19 +3081,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E825ACE-8862-46A9-9483-F40D37A219F1}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3111,19 +3111,19 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>85</v>
       </c>
@@ -3159,19 +3159,19 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>106</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>108</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>109</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>110</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>112</v>
       </c>
@@ -3248,36 +3248,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="15"/>
     </row>
@@ -3296,18 +3296,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3522,18 +3522,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554B47C3-3F6D-4003-832E-345C67DC1627}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554B47C3-3F6D-4003-832E-345C67DC1627}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
